--- a/数据整理/stocks/A股/上证主板/603610-麒盛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603610-麒盛科技.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,37 +462,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -502,226 +482,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,14 +554,226 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
